--- a/timetabling_GA/results/HK2_CT02/TKB_HocKy_GiangVien.xlsx
+++ b/timetabling_GA/results/HK2_CT02/TKB_HocKy_GiangVien.xlsx
@@ -609,21 +609,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -643,8 +650,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -654,8 +661,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -677,28 +684,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -714,17 +714,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -847,21 +847,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -881,8 +888,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -892,8 +899,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -915,28 +922,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -952,17 +952,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1085,21 +1085,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1119,8 +1126,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1130,8 +1137,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1153,28 +1160,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1190,17 +1190,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1323,21 +1323,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1357,8 +1364,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1368,8 +1375,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1391,28 +1398,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1428,17 +1428,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1561,21 +1561,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1595,8 +1602,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1606,8 +1613,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1629,28 +1636,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1666,17 +1666,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1799,21 +1799,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1833,8 +1840,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -1844,8 +1851,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -1867,28 +1874,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -1904,17 +1904,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2037,21 +2037,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2071,8 +2078,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2082,8 +2089,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2105,28 +2112,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2142,17 +2142,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2275,21 +2275,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2309,8 +2316,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2320,8 +2327,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2343,28 +2350,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2380,17 +2380,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2513,21 +2513,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2547,8 +2554,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2558,8 +2565,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2581,28 +2588,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2618,17 +2618,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2751,21 +2751,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2785,8 +2792,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -2796,8 +2803,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -2819,28 +2826,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2856,17 +2856,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2989,21 +2989,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3023,8 +3030,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3034,8 +3041,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3057,28 +3064,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3094,17 +3094,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3227,21 +3227,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3261,8 +3268,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3272,8 +3279,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3295,28 +3302,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3332,17 +3332,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3465,21 +3465,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3499,8 +3506,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3510,8 +3517,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3533,28 +3540,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3570,17 +3570,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3703,21 +3703,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3737,8 +3744,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3748,8 +3755,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -3771,28 +3778,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3808,17 +3808,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3941,21 +3941,28 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-Phòng: R102
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vĩ mô
-Phòng: R103
+          <t>Lớp: CL04
+Môn: Kinh tế vĩ mô
+Phòng: R104
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3975,8 +3982,8 @@
       <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
-Phòng: R104
+Môn: Kinh tế vĩ mô
+Phòng: R102
 (Lý thuyết)</t>
         </is>
       </c>
@@ -3986,8 +3993,8 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
 Phòng: R104
 (Lý thuyết)</t>
         </is>
@@ -4009,28 +4016,21 @@
         <is>
           <t>Lớp: CL03
 Môn: Kinh tế vĩ mô
-Phòng: R103
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+Phòng: R102
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL09
 Môn: Kinh tế vi mô
-Phòng: R101
-(Lý thuyết)</t>
-        </is>
-      </c>
+Phòng: R104
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -4046,17 +4046,17 @@
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-Phòng: R104
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+Phòng: R103
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
   </sheetData>
